--- a/PuzzleServer/src/doc/PaperList.xlsx
+++ b/PuzzleServer/src/doc/PaperList.xlsx
@@ -4,106 +4,46 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19032" windowHeight="4680"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>ID</t>
+  </si>
+  <si>
+    <t>paperName</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>count</t>
+  </si>
+  <si>
+    <t>gaozhonghuikao1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>name</t>
+    <t>高中地理会考1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>count</t>
+    <t>高中地理会考2</t>
+  </si>
+  <si>
+    <t>gaozhonghuikao2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>小学地理竞赛题</t>
-  </si>
-  <si>
-    <t>小学六年级</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>初中地理会考</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>初一地理</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>初二地理</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>初三地理</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>高一地理</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>高二地理</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>高三地理</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>paperName</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>gradeCompetition</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>grade6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>juniorGeneral</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>junior1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>junior2</t>
-  </si>
-  <si>
-    <t>junior3</t>
-  </si>
-  <si>
-    <t>senior1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>senior2</t>
-  </si>
-  <si>
-    <t>senior3</t>
-  </si>
-  <si>
-    <t>中国地理测试</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>chinaTest</t>
+    <t>更多试题，敬请期待。。。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -111,7 +51,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -125,13 +65,6 @@
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF333333"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
     </font>
   </fonts>
   <fills count="2">
@@ -154,14 +87,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -466,17 +393,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.109375" customWidth="1"/>
-    <col min="2" max="2" width="26" customWidth="1"/>
-    <col min="3" max="3" width="22.33203125" customWidth="1"/>
+    <col min="1" max="1" width="10.88671875" customWidth="1"/>
+    <col min="2" max="2" width="22.88671875" customWidth="1"/>
+    <col min="3" max="3" width="21.21875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -484,13 +411,13 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -498,10 +425,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
+        <v>5</v>
       </c>
       <c r="D2">
         <v>10</v>
@@ -512,10 +439,10 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>4</v>
+        <v>7</v>
+      </c>
+      <c r="C3" t="s">
+        <v>6</v>
       </c>
       <c r="D3">
         <v>10</v>
@@ -523,114 +450,10 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>23</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D4">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C5" t="s">
-        <v>5</v>
-      </c>
-      <c r="D5">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6" t="s">
-        <v>16</v>
-      </c>
-      <c r="C6" t="s">
-        <v>6</v>
-      </c>
-      <c r="D6">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>6</v>
-      </c>
-      <c r="B7" t="s">
-        <v>17</v>
-      </c>
-      <c r="C7" t="s">
-        <v>7</v>
-      </c>
-      <c r="D7">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>7</v>
-      </c>
-      <c r="B8" t="s">
-        <v>18</v>
-      </c>
-      <c r="C8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" t="s">
         <v>8</v>
-      </c>
-      <c r="D8">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>8</v>
-      </c>
-      <c r="B9" t="s">
-        <v>19</v>
-      </c>
-      <c r="C9" t="s">
-        <v>9</v>
-      </c>
-      <c r="D9">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>9</v>
-      </c>
-      <c r="B10" t="s">
-        <v>20</v>
-      </c>
-      <c r="C10" t="s">
-        <v>10</v>
-      </c>
-      <c r="D10">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>10</v>
-      </c>
-      <c r="B11" t="s">
-        <v>21</v>
-      </c>
-      <c r="C11" t="s">
-        <v>11</v>
-      </c>
-      <c r="D11">
-        <v>10</v>
       </c>
     </row>
   </sheetData>
